--- a/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-75,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>-14,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>-18,9%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,75</t>
+          <t>-4,95; -0,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,53</t>
+          <t>-2,42; 1,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,22</t>
+          <t>-0,71; 1,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,52</t>
+          <t>-3,15; 2,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 74,03</t>
+          <t>-94,26; -1,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 105,87</t>
+          <t>-82,74; 189,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 95,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 382,5</t>
+          <t>-80,8; 164,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-75,15%</t>
+          <t>-20,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>-27,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>-33,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>87,09%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,59</t>
+          <t>-3,26; 1,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,91</t>
+          <t>-3,09; 1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,78</t>
+          <t>-3,33; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,14</t>
+          <t>-0,36; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-94,26; -1,31</t>
+          <t>-64,9; 74,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,74; 189,35</t>
+          <t>-74,03; 105,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,13; 95,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-80,8; 164,99</t>
+          <t>-26,52; 382,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-72,24%</t>
+          <t>-54,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>-50,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-67,94%</t>
+          <t>-66,8%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,34</t>
+          <t>-4,24; 1,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,13</t>
+          <t>-3,31; 3,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,04</t>
+          <t>-5,44; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,43</t>
+          <t>-11,28; 1,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-95,56; 14,38</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 236,3</t>
+          <t>-70,97; 173,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,54; 190,5</t>
+          <t>-89,94; 95,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,06</t>
+          <t>-100,0; 158,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-75,15%</t>
+          <t>-77,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>173,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>135,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>-4,27%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,59</t>
+          <t>-4,94; -0,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,91</t>
+          <t>-0,25; 3,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,78</t>
+          <t>-0,28; 3,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,14</t>
+          <t>-2,24; 2,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-94,26; -1,31</t>
+          <t>-94,71; -16,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,74; 189,35</t>
+          <t>-45,34; 1455,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,8; 164,99</t>
+          <t>-84,28; 589,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-62,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,48%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>-40,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>35,19%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 1,75</t>
+          <t>-7,62; -0,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,53</t>
+          <t>-3,92; 1,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 1,22</t>
+          <t>-3,46; 1,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,52</t>
+          <t>-2,15; 4,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 74,03</t>
+          <t>-91,56; 12,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 105,87</t>
+          <t>-80,35; 158,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-76,13; 95,93</t>
+          <t>-89,88; 150,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 382,5</t>
+          <t>-64,44; 389,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,56%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-44,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>63,79%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; -0,54</t>
+          <t>-2,3; 3,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,22</t>
+          <t>-4,65; 1,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,02</t>
+          <t>-2,86; 2,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,98</t>
+          <t>-1,08; 4,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,28; -14,75</t>
+          <t>-59,98; 207,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 72,13</t>
+          <t>-85,15; 70,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 70,58</t>
+          <t>-84,39; 378,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 116,89</t>
+          <t>-52,33; 493,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-51,56%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-6,16%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; -0,38</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 1,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 1,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 2,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-72,52; -9,99</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-46,34; 68,1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-51,31; 66,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,51; 136,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,21</t>
+          <t>-3,92; 1,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 3,3</t>
+          <t>-3,92; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,94</t>
+          <t>-5,57; 0,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 1,14</t>
+          <t>-11,96; 1,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,97; 173,85</t>
+          <t>-75,75; 149,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-89,94; 95,16</t>
+          <t>-91,89; 89,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 158,24</t>
+          <t>-100,0; 158,9</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -0,84</t>
+          <t>-5,12; -0,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,22</t>
+          <t>-0,23; 3,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,84</t>
+          <t>-0,36; 3,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,6</t>
+          <t>-2,19; 2,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-94,71; -16,17</t>
+          <t>-94,94; -14,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,34; 1455,65</t>
+          <t>-54,65; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,68; 937,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,28; 589,89</t>
+          <t>-85,61; 506,56</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; -0,13</t>
+          <t>-7,44; 0,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,99</t>
+          <t>-3,82; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,2</t>
+          <t>-3,59; 1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,09</t>
+          <t>-1,93; 4,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,56; 12,94</t>
+          <t>-91,01; 18,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,35; 158,96</t>
+          <t>-86,22; 145,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 150,95</t>
+          <t>-89,73; 182,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 389,03</t>
+          <t>-57,61; 427,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,1</t>
+          <t>-2,36; 2,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,2</t>
+          <t>-4,73; 1,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,52</t>
+          <t>-2,89; 2,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,66</t>
+          <t>-1,04; 4,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 207,3</t>
+          <t>-60,1; 200,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 70,31</t>
+          <t>-85,65; 72,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,39; 378,87</t>
+          <t>-82,18; 277,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,33; 493,37</t>
+          <t>-55,66; 468,98</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,38</t>
+          <t>-3,24; -0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,14</t>
+          <t>-1,38; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,02</t>
+          <t>-1,34; 0,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,17</t>
+          <t>-1,1; 2,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -9,99</t>
+          <t>-73,33; -17,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 68,1</t>
+          <t>-46,05; 68,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 66,01</t>
+          <t>-50,34; 68,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 136,9</t>
+          <t>-38,77; 114,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-66,8%</t>
+          <t>-68,38%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,02</t>
+          <t>-4,21; 1,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,85</t>
+          <t>-3,9; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 0,81</t>
+          <t>-5,63; 0,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 1,28</t>
+          <t>-13,11; 0,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,75; 149,66</t>
+          <t>-74,71; 178,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-91,89; 89,42</t>
+          <t>-92,06; 89,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 158,9</t>
+          <t>-100,0; 95,47</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,83</t>
+          <t>-5,01; -0,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,54</t>
+          <t>-0,11; 3,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,53</t>
+          <t>-0,47; 3,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,44</t>
+          <t>-2,19; 2,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-94,94; -14,23</t>
+          <t>-94,96; -26,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,65; —</t>
+          <t>-43,58; 1484,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 937,59</t>
+          <t>-50,63; 1082,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,61; 506,56</t>
+          <t>-86,19; 418,78</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>33,42%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 0,05</t>
+          <t>-7,97; -0,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,86</t>
+          <t>-4,0; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 1,31</t>
+          <t>-3,63; 1,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 4,12</t>
+          <t>-2,18; 4,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-91,01; 18,04</t>
+          <t>-91,21; 15,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,22; 145,15</t>
+          <t>-85,85; 155,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 182,39</t>
+          <t>-89,62; 133,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 427,68</t>
+          <t>-59,74; 340,17</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>128,96%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,91</t>
+          <t>-2,5; 3,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,18</t>
+          <t>-4,88; 1,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,42</t>
+          <t>-2,9; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,82</t>
+          <t>-0,75; 9,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,1; 200,16</t>
+          <t>-60,57; 181,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,65; 72,22</t>
+          <t>-85,58; 98,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,18; 277,74</t>
+          <t>-83,57; 283,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,66; 468,98</t>
+          <t>-44,42; 898,44</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>29,55%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; -0,52</t>
+          <t>-3,3; -0,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,21</t>
+          <t>-1,45; 1,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,97</t>
+          <t>-1,38; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,01</t>
+          <t>-0,93; 3,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-73,33; -17,66</t>
+          <t>-74,28; -14,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 68,31</t>
+          <t>-47,45; 72,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 68,59</t>
+          <t>-51,57; 70,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 114,63</t>
+          <t>-36,47; 201,16</t>
         </is>
       </c>
     </row>
